--- a/pred_ohlcv/54_21/2020-01-13 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 STEEM ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-10420.4564</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-10420.4564</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-10780.6715</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-10905.6715</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-10655.6715</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-8532.620799999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-8829.628099999998</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8819.628099999998</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8819.628099999998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8211.506099999999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-14081.2807</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-14081.2807</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-31830.1035</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-29949.3148</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-29555.3148</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-29732.599</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-27211.752</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-27211.752</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-50258.8095</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-51723.4379</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-76045.4105</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-68957.4105</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-70447.4105</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-54351.6109</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-54351.6109</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-54351.6109</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-54351.6109</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-54460.0335</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-41232.81819999999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-27684.619</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-34738.0971</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-33704.0971</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-33874.64639999999</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-29007.90809999999</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-16570.43809999999</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-18430.37379999999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-14903.62659999999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-19122.34749999999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-15730.09469999999</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-10688.18289999999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4038.142499999989</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3850.142499999989</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-5543.528399999989</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-20282.27849999999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-18071.46599999999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-18076.46599999999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-15554.46599999999</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-15560.05399999999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-12461.75139999999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-12461.75139999999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-12471.23139999999</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-9471.23139999999</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-8204.23139999999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-2450.460999999989</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-7320.441699999989</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>4206.958700000011</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>4456.958700000011</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>4404.655300000011</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>8225.655300000011</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>28478.77410000001</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>25700.50340000001</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>30574.28660000001</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>31158.68250000001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>32057.41020000001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>32057.41020000001</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>35666.41020000001</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>32483.14660000001</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>32702.04680000001</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>34819.64380000001</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>42441.3846</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>42655.7746</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>42655.7746</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>40741.1856</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>40741.1856</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>40741.1856</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>39843.74940000001</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>40131.58860000001</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>37270.84020000001</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 STEEM ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-10420.4564</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-10420.4564</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-10780.6715</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-10905.6715</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-10655.6715</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-8829.628099999998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-29949.3148</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-29555.3148</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-29732.599</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-27211.752</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-27211.752</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-27083.949</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-17852.4248</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-51039.91190000001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-51723.4379</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-76045.4105</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-70447.4105</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-54351.6109</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-54351.6109</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-54351.6109</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-54351.6109</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-54460.0335</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-41232.81819999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-41202.8573</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-27684.619</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-36602.8705</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-33223.78969999999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-33874.64639999999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-29007.90809999999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-16570.43809999999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-14597.83499999999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-19589.57899999999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-16927.37379999999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-18430.37379999999</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-14903.62659999999</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-19122.34749999999</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-15730.09469999999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-13600.09469999999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-7893.496199999989</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-10688.18289999999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4038.142499999989</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4038.142499999989</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3850.142499999989</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-5543.528399999989</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-20282.27849999999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-18071.46599999999</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-18076.46599999999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-15560.05399999999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-12461.75139999999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-12461.75139999999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-12471.23139999999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-9471.23139999999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-8204.23139999999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>31158.68250000001</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>32057.41020000001</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>32057.41020000001</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>35666.41020000001</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>32483.14660000001</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>32702.04680000001</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>34819.64380000001</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>42441.3846</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>42655.7746</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>42655.7746</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>40741.1856</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>40741.1856</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>40741.1856</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>39843.74940000001</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>40131.58860000001</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>37270.84020000001</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
